--- a/import/user_import.xlsx
+++ b/import/user_import.xlsx
@@ -512,12 +512,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>yzls62@outlook.com</t>
+          <t>5d4zbu@tutanota.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>JlFRCZ</t>
+          <t>rwVDh9</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Степанов Михаил Артёмович</t>
+          <t>Ситдикова Елена Анатольевна</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1diph5e@tutanota.com</t>
+          <t>ptec8ym@yahoo.com</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8ntwUp</t>
+          <t>LdNyos</t>
         </is>
       </c>
     </row>
@@ -556,12 +556,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>tjde7c@yahoo.com</t>
+          <t>1qz4kw@mail.com</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>YOyhfR</t>
+          <t>gynQMT</t>
         </is>
       </c>
     </row>
@@ -578,12 +578,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>wpmrc3do@tutanota.com</t>
+          <t>4np6se@mail.com</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>RSbvHv</t>
+          <t>AtnDjr</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Михайлюк Анна Вячеславовна</t>
+          <t>Никифорова Анна Семеновна</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5d4zbu@tutanota.com</t>
+          <t>yzls62@outlook.com</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>rwVDh9</t>
+          <t>JlFRCZ</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ситдикова Елена Анатольевна</t>
+          <t>Стелина Евгения Петровна</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ptec8ym@yahoo.com</t>
+          <t>1diph5e@tutanota.com</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LdNyos</t>
+          <t>8ntwUp</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ворсин Петр Евгеньевич</t>
+          <t>Михайлюк Анна Вячеславовна</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1qz4kw@mail.com</t>
+          <t>tjde7c@yahoo.com</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>gynQMT</t>
+          <t>YOyhfR</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Старикова Елена Павловна</t>
+          <t>Степанов Михаил Артёмович</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4np6se@mail.com</t>
+          <t>wpmrc3do@tutanota.com</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>AtnDjr</t>
+          <t>RSbvHv</t>
         </is>
       </c>
     </row>
